--- a/data/trans_dic/P11_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05341266974543707</v>
+        <v>0.05324483656408186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0497021714057141</v>
+        <v>0.0489659888717761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04587762577590215</v>
+        <v>0.04465028040876355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1383985789452128</v>
+        <v>0.1359882281864659</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06580288127146203</v>
+        <v>0.06753724295712622</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1108605166378495</v>
+        <v>0.1116824228028477</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1082537982185074</v>
+        <v>0.1092098601342918</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2130932185534069</v>
+        <v>0.2149755781946275</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06705328777416522</v>
+        <v>0.06663011024850456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0855279337849085</v>
+        <v>0.08592239504056591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08286364790477858</v>
+        <v>0.08311461496161948</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1888271720887637</v>
+        <v>0.1886070819159947</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09862614380886126</v>
+        <v>0.0958378395521285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08156078978916309</v>
+        <v>0.08186231976877408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07564911852728387</v>
+        <v>0.07381942182759364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2041455382436112</v>
+        <v>0.2066007861029072</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1022615834048517</v>
+        <v>0.1036340068125288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1523727554807731</v>
+        <v>0.1510989866943207</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1488421444419188</v>
+        <v>0.1485525285358567</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2720748758000783</v>
+        <v>0.2710202121785955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09539203221895108</v>
+        <v>0.09394198931547257</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1126084365536215</v>
+        <v>0.1126022976022111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1074235067906603</v>
+        <v>0.1078396295066178</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2319064786345014</v>
+        <v>0.233315763201128</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03378251728902711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08892196520662465</v>
+        <v>0.08892196520662464</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03472309916361973</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01737278645992556</v>
+        <v>0.01658776247107133</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03209191822677279</v>
+        <v>0.03397131749782376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02362865647998378</v>
+        <v>0.02320414618484793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07281139448853775</v>
+        <v>0.07250649077475295</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02416947864185369</v>
+        <v>0.02513031991091902</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08114203489457771</v>
+        <v>0.08170358961482017</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06218256674485232</v>
+        <v>0.06210250624023356</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1243055492610358</v>
+        <v>0.12405066435079</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0234012741919846</v>
+        <v>0.02347665276825958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06209157322614484</v>
+        <v>0.06215711160779596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04678644840464138</v>
+        <v>0.0472906037601948</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1032155561368699</v>
+        <v>0.1047844598079296</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03683939037641747</v>
+        <v>0.03663780276886312</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06222857035503042</v>
+        <v>0.06380437932169186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04798626219670683</v>
+        <v>0.04723505557554553</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1083082872774338</v>
+        <v>0.1089851601956614</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04750096906165227</v>
+        <v>0.04747882977292407</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1183594658321966</v>
+        <v>0.1197140926383732</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09842517942591208</v>
+        <v>0.09883347800537548</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1550851829468956</v>
+        <v>0.1558624275188561</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03789509606336942</v>
+        <v>0.03855355557938921</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08579221506725691</v>
+        <v>0.08701414953903638</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06929901228001296</v>
+        <v>0.06858390963959522</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1284876192033819</v>
+        <v>0.1294884345806429</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04439787551809007</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06836607297060067</v>
+        <v>0.06836607297060068</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01555184121618079</v>
+        <v>0.01520738312156454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03261190677616974</v>
+        <v>0.03390054437619366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01846582193740089</v>
+        <v>0.0181298439326516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03892549422392332</v>
+        <v>0.03784402553812197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02887506979388245</v>
+        <v>0.02866363047817539</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04829176935704266</v>
+        <v>0.0474563760832511</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04427259632928916</v>
+        <v>0.04355187818246858</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07496114095562492</v>
+        <v>0.07273749050970689</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02431080044618003</v>
+        <v>0.0240977276586238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04378844833395733</v>
+        <v>0.04400910303276846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03442363790923525</v>
+        <v>0.03512724074287761</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05884447822491659</v>
+        <v>0.05961955761896325</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03371145259291425</v>
+        <v>0.03508564132529588</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06018053811814818</v>
+        <v>0.06213420985390343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04247242743061629</v>
+        <v>0.04199316343931267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0650492952543366</v>
+        <v>0.06492624401145186</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05309459906068289</v>
+        <v>0.0541976181135488</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08372943005017529</v>
+        <v>0.08296494478058711</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07981374470559982</v>
+        <v>0.08231456726705985</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1011815047571996</v>
+        <v>0.09996369943180704</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03929345845989551</v>
+        <v>0.03920088064828352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06629539706218103</v>
+        <v>0.06702677703578784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05525091391139753</v>
+        <v>0.05615909305215811</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07830985007811615</v>
+        <v>0.07903122926010037</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03569692255791547</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05619624327129715</v>
+        <v>0.05619624327129714</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03836576144779271</v>
@@ -1105,7 +1105,7 @@
         <v>0.05296363110289704</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06194568306851704</v>
+        <v>0.06194568306851705</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01636008053639493</v>
+        <v>0.01683688582910603</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02450387356775201</v>
+        <v>0.02335649134809707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02083178222922</v>
+        <v>0.02249983884442541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04383029300689464</v>
+        <v>0.04438710428447544</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01971744360792914</v>
+        <v>0.02032420527164148</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06289041054186736</v>
+        <v>0.05859796369135383</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04773019263217809</v>
+        <v>0.04929489169297713</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05655672988662003</v>
+        <v>0.05454652017335012</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02206645841536571</v>
+        <v>0.02262383588058382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04535287672797397</v>
+        <v>0.04708396230005365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03868112845059857</v>
+        <v>0.03974038956901868</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05274707087976331</v>
+        <v>0.05257044218188791</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0504289603649917</v>
+        <v>0.0486787824480221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06552521577156489</v>
+        <v>0.0655107178469102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0600554994743001</v>
+        <v>0.06197853381044161</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07360473885311261</v>
+        <v>0.07296454229581506</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06264351226575761</v>
+        <v>0.06371473017159932</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1162585634694008</v>
+        <v>0.1149267281143311</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09819579595985693</v>
+        <v>0.1000179803964474</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08190892232422957</v>
+        <v>0.08124843002846441</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04790728423655375</v>
+        <v>0.04871418802423582</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08128831334131337</v>
+        <v>0.08139436700472368</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07126562314085047</v>
+        <v>0.06988769219759206</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07299725972729966</v>
+        <v>0.07227278271674706</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04089969591035964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07965632450579828</v>
+        <v>0.07965632450579829</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05021157080735004</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02827193519554031</v>
+        <v>0.02790566626899727</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04335089270551679</v>
+        <v>0.04344757388404281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03407992204747178</v>
+        <v>0.03472532636498889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07188297268183487</v>
+        <v>0.07070016532808827</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04292438090809808</v>
+        <v>0.04346516553757163</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08828830360486853</v>
+        <v>0.08716937291145291</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08095607444696867</v>
+        <v>0.08147354871562291</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1154834283801893</v>
+        <v>0.1152564365808599</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03722475199763912</v>
+        <v>0.03752290897723116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06834280446936947</v>
+        <v>0.06955495828321559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06118239386843053</v>
+        <v>0.06084017224811981</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09668850555119499</v>
+        <v>0.09653847564626571</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04049053709805472</v>
+        <v>0.04045504904422187</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05991193358157623</v>
+        <v>0.05983148721931621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04842592480206594</v>
+        <v>0.04836957719620144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08992947901344006</v>
+        <v>0.08877601709004537</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05877332170775831</v>
+        <v>0.05845274795691075</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1081403080050461</v>
+        <v>0.1088003021235628</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1024638137887159</v>
+        <v>0.1017492610184885</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1335420268346821</v>
+        <v>0.1329705695159646</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0473226141511655</v>
+        <v>0.04749005633582067</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08195775565205506</v>
+        <v>0.08234255551487216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07353506059606256</v>
+        <v>0.07358710084076511</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.108975890521086</v>
+        <v>0.1094768194132148</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31201</v>
+        <v>31102</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51776</v>
+        <v>51009</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51437</v>
+        <v>50061</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>68881</v>
+        <v>67681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>60692</v>
+        <v>62292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>123831</v>
+        <v>124749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>134900</v>
+        <v>136091</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>132881</v>
+        <v>134054</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>101014</v>
+        <v>100377</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>184631</v>
+        <v>185483</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>196166</v>
+        <v>196760</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>211728</v>
+        <v>211481</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57612</v>
+        <v>55983</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>84964</v>
+        <v>85278</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84817</v>
+        <v>82765</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101603</v>
+        <v>102825</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94319</v>
+        <v>95585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>170200</v>
+        <v>168777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>185479</v>
+        <v>185118</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>169660</v>
+        <v>169003</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>143706</v>
+        <v>141521</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>243090</v>
+        <v>243077</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>254307</v>
+        <v>255292</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>260032</v>
+        <v>261612</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18726</v>
+        <v>17880</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31267</v>
+        <v>33098</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21317</v>
+        <v>20934</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69909</v>
+        <v>69616</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25560</v>
+        <v>26576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>88791</v>
+        <v>89405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62259</v>
+        <v>62179</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>138631</v>
+        <v>138346</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49972</v>
+        <v>50133</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>128441</v>
+        <v>128576</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>89053</v>
+        <v>90012</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>214211</v>
+        <v>217467</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39709</v>
+        <v>39492</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60630</v>
+        <v>62165</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43291</v>
+        <v>42614</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>103991</v>
+        <v>104641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50234</v>
+        <v>50211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>129516</v>
+        <v>130999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>98546</v>
+        <v>98955</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>172957</v>
+        <v>173824</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80922</v>
+        <v>82328</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>177467</v>
+        <v>179995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>131903</v>
+        <v>130542</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>266660</v>
+        <v>268737</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17443</v>
+        <v>17057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28757</v>
+        <v>29893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15084</v>
+        <v>14809</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40735</v>
+        <v>39603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28700</v>
+        <v>28490</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42294</v>
+        <v>41562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34006</v>
+        <v>33452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>78483</v>
+        <v>76155</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51430</v>
+        <v>50980</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>76962</v>
+        <v>77350</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>54560</v>
+        <v>55675</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>123189</v>
+        <v>124811</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37811</v>
+        <v>39352</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53067</v>
+        <v>54790</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34693</v>
+        <v>34302</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68073</v>
+        <v>67944</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52773</v>
+        <v>53869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>73330</v>
+        <v>72660</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61305</v>
+        <v>63226</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>105936</v>
+        <v>104660</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>83127</v>
+        <v>82931</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>116520</v>
+        <v>117806</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>87570</v>
+        <v>89009</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>163939</v>
+        <v>165449</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7316</v>
+        <v>7529</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12111</v>
+        <v>11543</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10465</v>
+        <v>11303</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42662</v>
+        <v>43204</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6727</v>
+        <v>6934</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28414</v>
+        <v>26475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23373</v>
+        <v>24140</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51274</v>
+        <v>49451</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17396</v>
+        <v>17836</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>42905</v>
+        <v>44543</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38374</v>
+        <v>39425</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>99161</v>
+        <v>98829</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22552</v>
+        <v>21769</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32384</v>
+        <v>32377</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30170</v>
+        <v>31136</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71643</v>
+        <v>71020</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21371</v>
+        <v>21737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52526</v>
+        <v>51924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48086</v>
+        <v>48979</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>74258</v>
+        <v>73659</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37768</v>
+        <v>38404</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>76901</v>
+        <v>77001</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70700</v>
+        <v>69333</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>137230</v>
+        <v>135868</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91342</v>
+        <v>90158</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147049</v>
+        <v>147377</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>113914</v>
+        <v>116072</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>249985</v>
+        <v>245871</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>142293</v>
+        <v>144086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>312440</v>
+        <v>308480</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>283765</v>
+        <v>285578</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>426410</v>
+        <v>425572</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>243666</v>
+        <v>245617</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>473678</v>
+        <v>482079</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>418960</v>
+        <v>416617</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>693262</v>
+        <v>692186</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>130818</v>
+        <v>130703</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>203225</v>
+        <v>202952</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>161867</v>
+        <v>161678</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>312744</v>
+        <v>308733</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>194832</v>
+        <v>193769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>382693</v>
+        <v>385029</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>359153</v>
+        <v>356648</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>493090</v>
+        <v>490980</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>309764</v>
+        <v>310860</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>568042</v>
+        <v>570709</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>503548</v>
+        <v>503905</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>781363</v>
+        <v>784955</v>
       </c>
     </row>
     <row r="24">
